--- a/LabRabota4_1/Книга1.xlsx
+++ b/LabRabota4_1/Книга1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi-Tech\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi-Tech\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B4F56-6CFD-4989-BB9A-01A223FB334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0F73E6-E2F2-4866-BC27-7A42F6DD25E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="75" windowWidth="18900" windowHeight="11055" xr2:uid="{D391D5ED-0073-4FC0-BC4C-0FE74DA576AE}"/>
+    <workbookView xWindow="3645" yWindow="420" windowWidth="18900" windowHeight="11055" xr2:uid="{D391D5ED-0073-4FC0-BC4C-0FE74DA576AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -435,19 +435,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>125.8</c:v>
+                  <c:v>118.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>463.8</c:v>
+                  <c:v>446.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1014.2</c:v>
+                  <c:v>1005.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1860</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2866.6</c:v>
+                  <c:v>2807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>125.8</v>
+        <v>118.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>463.8</v>
+        <v>446.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>1014.2</v>
+        <v>1005.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>1860</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>2866.6</v>
+        <v>2807</v>
       </c>
     </row>
   </sheetData>
